--- a/02. Mulcamp_Final(2023-11-01 ~ 2023-12-05)/Statistics Table.xlsx
+++ b/02. Mulcamp_Final(2023-11-01 ~ 2023-12-05)/Statistics Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\League\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Project\02. Mulcamp_Final(2023-11-01 ~ 2023-12-05)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC42DBD-89AF-45B6-AA9D-C5E424893DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00C145-55C4-4D18-8188-CE212B2AAE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,10 +447,6 @@
     <t>Equal Variances Assumed</t>
   </si>
   <si>
-    <t>안전/위험 그룹간의 평균 비교 T-Test 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유의미 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,6 +544,10 @@
   </si>
   <si>
     <t>BorderlineSMOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전/위험 단계 그룹간의 평균 비교 T-Test 결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD16DDD9-AF2C-41A9-850A-7F2804FD2A33}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1401,7 +1401,7 @@
     <row r="2" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="22"/>
       <c r="B2" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -1414,19 +1414,19 @@
         <v>65</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1434,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="23">
         <v>0.68</v>
@@ -1454,10 +1454,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="23">
         <v>0.82</v>
@@ -1474,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="23">
         <v>0.61</v>
@@ -1494,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="23">
         <v>0.61</v>
@@ -1514,10 +1514,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="23">
         <v>0.71</v>
@@ -1534,10 +1534,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="23">
         <v>0.75</v>
@@ -1554,10 +1554,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="23">
         <v>0.71</v>
@@ -1574,10 +1574,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="24">
         <v>0.68</v>
@@ -1592,7 +1592,7 @@
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -1605,19 +1605,19 @@
         <v>65</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="23">
         <v>0.68</v>
@@ -1645,10 +1645,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="23">
         <v>0.56999999999999995</v>
@@ -1665,10 +1665,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="23">
         <v>0.71</v>
@@ -1685,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="23">
         <v>0.68</v>
@@ -1705,10 +1705,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -1719,10 +1719,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -1733,10 +1733,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -1747,10 +1747,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -1759,7 +1759,7 @@
     <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -1772,19 +1772,19 @@
         <v>65</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -1792,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -1806,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -1820,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -1834,10 +1834,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -1848,10 +1848,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -1862,10 +1862,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
@@ -1876,10 +1876,10 @@
         <v>7</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -1890,10 +1890,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -1902,7 +1902,7 @@
     <row r="41" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -1915,19 +1915,19 @@
         <v>65</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
@@ -1935,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -1949,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
@@ -1963,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
@@ -1977,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -2058,7 +2058,7 @@
     <row r="1" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" s="22" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="32" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -2081,7 +2081,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>64</v>
@@ -2965,7 +2965,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2973,9 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
